--- a/va_facility_data_2025-02-20/Central Alabama VA Medical Center-Tuskegee - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20VA%20Medical%20Center-Tuskegee%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Central Alabama VA Medical Center-Tuskegee - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20VA%20Medical%20Center-Tuskegee%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfdd6c64ddf7246e2b975ca98f6b1cb05"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R31d5b01ef6c5486ab6e3cb7f602d5ea7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4037be8f99e346c08af1ce9726c71380"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc6d8cc64f1204f1994e54dd6b336e2b1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7d71f669946a48d5a53a11963a380569"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfa24299917cc446496e9e5103c0a9016"/>
   </x:sheets>
 </x:workbook>
 </file>
